--- a/dnevnik rada.xlsx
+++ b/dnevnik rada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fax\Godina 3\PROGI\Projekt\master\mojprojektrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2DC39-5FB4-4CEB-98C4-13BEC41632BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838C464F-07B8-4FBA-9442-44D025F4BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B3E78E1-6187-4A2C-8C10-A73C40DF06A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Luka Ivanković</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>3.1 - Funkcionalni zahtjevi</t>
+  </si>
+  <si>
+    <t>dijagrami</t>
+  </si>
+  <si>
+    <t>programiranje osnovnih funkcionalnosti</t>
+  </si>
+  <si>
+    <t>4.1 Baze podataka</t>
+  </si>
+  <si>
+    <t>3.2-ostali zahtjevi, Baze podataka</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,48 +466,66 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -503,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
